--- a/src/test/resources/example.xlsx
+++ b/src/test/resources/example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SWATHIN\eclipse-workspace\capg\Sprint2\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED7BFBF-C5BB-46C2-AA80-981844983216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C4A938-8EFE-45E8-911D-27BDF87B980A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2170" yWindow="2810" windowWidth="14400" windowHeight="7270" xr2:uid="{E58940E6-4287-4CE4-A686-83692CFC8D7B}"/>
+    <workbookView xWindow="3880" yWindow="1670" windowWidth="14400" windowHeight="7270" xr2:uid="{E58940E6-4287-4CE4-A686-83692CFC8D7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,31 +53,31 @@
     <t>My learning is superb so far.</t>
   </si>
   <si>
+    <t>Input</t>
+  </si>
+  <si>
     <t>Verify that the user can search a product</t>
   </si>
   <si>
-    <t>Mobile</t>
-  </si>
-  <si>
-    <t>Input</t>
-  </si>
-  <si>
-    <t>Verify that the search field is presented with aligned</t>
+    <t>Verify that search field is present with aligned</t>
   </si>
   <si>
     <t>Verify by entering any one character in the search box</t>
   </si>
   <si>
+    <t>Verify by entering the string in the search bar between spaces</t>
+  </si>
+  <si>
+    <t>Verify by entering text that starts with special character</t>
+  </si>
+  <si>
+    <t>Mobiles</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
-    <t>Verify by entering the string in the search bar between spaces</t>
-  </si>
-  <si>
     <t>TV Table</t>
-  </si>
-  <si>
-    <t>Verify by entering text that starts with special character</t>
   </si>
   <si>
     <t>$TV</t>
@@ -87,18 +87,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial Unicode MS"/>
     </font>
     <font>
       <sz val="10"/>
@@ -125,15 +120,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -458,8 +447,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="53.81640625" customWidth="1"/>
-    <col min="2" max="2" width="20.36328125" customWidth="1"/>
+    <col min="1" max="1" width="54.36328125" customWidth="1"/>
     <col min="4" max="4" width="25.1796875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -468,7 +456,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -479,10 +467,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -492,29 +480,29 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
+      <c r="A3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="3" t="s">
-        <v>13</v>
+      <c r="A6" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>

--- a/src/test/resources/example.xlsx
+++ b/src/test/resources/example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SWATHIN\eclipse-workspace\capg\Sprint2\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C4A938-8EFE-45E8-911D-27BDF87B980A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C45246-218B-445D-8CB4-2DE86483150C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3880" yWindow="1670" windowWidth="14400" windowHeight="7270" xr2:uid="{E58940E6-4287-4CE4-A686-83692CFC8D7B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E58940E6-4287-4CE4-A686-83692CFC8D7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -74,13 +74,13 @@
     <t>Mobiles</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>TV Table</t>
   </si>
   <si>
     <t>$TV</t>
+  </si>
+  <si>
+    <t>AA</t>
   </si>
 </sst>
 </file>
@@ -442,7 +442,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -489,7 +489,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -497,7 +497,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -505,7 +505,7 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/example.xlsx
+++ b/src/test/resources/example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SWATHIN\eclipse-workspace\capg\Sprint2\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C45246-218B-445D-8CB4-2DE86483150C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E089663-DAC3-4173-9124-BD91D41C18AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E58940E6-4287-4CE4-A686-83692CFC8D7B}"/>
   </bookViews>
@@ -80,7 +80,7 @@
     <t>$TV</t>
   </si>
   <si>
-    <t>AA</t>
+    <t>A</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/example.xlsx
+++ b/src/test/resources/example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SWATHIN\eclipse-workspace\capg\Sprint2\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E089663-DAC3-4173-9124-BD91D41C18AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49218173-DB67-45F8-A874-EA9A86B9AC2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E58940E6-4287-4CE4-A686-83692CFC8D7B}"/>
+    <workbookView xWindow="0" yWindow="2180" windowWidth="14400" windowHeight="7270" xr2:uid="{E58940E6-4287-4CE4-A686-83692CFC8D7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,23 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>tc_name</t>
   </si>
   <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>My learning is superb so far.</t>
-  </si>
-  <si>
     <t>Input</t>
   </si>
   <si>
@@ -81,6 +69,12 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Sorry, no results found!</t>
   </si>
 </sst>
 </file>
@@ -439,73 +433,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D6100B-F39F-4E8C-8907-791E648E2390}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="54.36328125" customWidth="1"/>
+    <col min="3" max="3" width="21.1796875" customWidth="1"/>
     <col min="4" max="4" width="25.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
+      <c r="B5" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
+      <c r="B6" t="s">
         <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
